--- a/Lista de Revisión de un SRS.xlsx
+++ b/Lista de Revisión de un SRS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\The Last Kingdom\Reliability-Videogame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\The Last Kingdom\Reliability-Videogame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Lista de Revisión "Checklist"</t>
   </si>
@@ -77,14 +77,53 @@
     <t>¿El documento cuenta con la estructura solicitada?</t>
   </si>
   <si>
-    <t>SRS</t>
+    <t>Entendimiento de los Requerimientos</t>
+  </si>
+  <si>
+    <t>¿Se ha elaborado un prototipo para un mejor entendimiento?</t>
+  </si>
+  <si>
+    <t>¿Se encuentra en el repositorio para el alcance de todos?</t>
+  </si>
+  <si>
+    <t>Aceptación del producto</t>
+  </si>
+  <si>
+    <t>¿Se están entregando avances para la aceptación por parte de un experto en el tema?</t>
+  </si>
+  <si>
+    <t>Registro de Aclaraciones</t>
+  </si>
+  <si>
+    <t>¿Se lleva un control de la información nueva por parte del cliente?</t>
+  </si>
+  <si>
+    <t>¿Se están realizando los cambios por cada avance?</t>
+  </si>
+  <si>
+    <t>Planeación de cambios</t>
+  </si>
+  <si>
+    <t>¿El documento cuenta con una correcta ortografía?</t>
+  </si>
+  <si>
+    <t>¿Existen ambiguedades en el documento?</t>
+  </si>
+  <si>
+    <t>¿Se tiene el cuidado de actualizar de las abreviaturas y tecnicismos?</t>
+  </si>
+  <si>
+    <t>Características del documento</t>
+  </si>
+  <si>
+    <t>Localización del documento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,11 +145,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -248,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -257,11 +291,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,21 +326,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -314,11 +359,43 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox"/>
 </file>
 
@@ -329,7 +406,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>161924</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
@@ -390,14 +467,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>161924</xdr:colOff>
+          <xdr:colOff>161925</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="247651" cy="200025"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
@@ -443,6 +525,129 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>285750</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="247650" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
       </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
@@ -452,17 +657,371 @@
       <xdr:oneCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>161924</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="247651" cy="200025"/>
+        <xdr:ext cx="247650" cy="200025"/>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="247650" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>161925</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="247650" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="247650" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="247650" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="247650" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="247650" cy="200025"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -774,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,16 +1345,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -860,32 +1419,32 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -908,140 +1467,166 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1094,16 +1679,48 @@
       <c r="H27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="41">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1178,6 +1795,182 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId7" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>285750</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId8" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>285750</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId9" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>285750</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId10" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>161925</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>276225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId11" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>295275</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId12" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>295275</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId13" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId14" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>295275</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
